--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="264" windowWidth="14340" windowHeight="4272" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4275" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="270"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -170,12 +175,16 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,107 +300,110 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -402,10 +414,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -440,7 +452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +485,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,6 +537,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,7 +609,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -572,13 +618,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -588,7 +634,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -597,7 +643,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -606,7 +652,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -616,12 +662,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -652,7 +698,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -671,7 +717,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -683,22 +729,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -726,7 +772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -740,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -754,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -769,29 +815,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -817,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -839,7 +885,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
@@ -861,7 +907,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
@@ -883,7 +929,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>24</v>
       </c>
@@ -905,7 +951,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -929,37 +975,37 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$B$19:$B$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$B$15:$B$16</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="56.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="1" s="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>33</v>
       </c>
@@ -1000,7 +1046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="26" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1035,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -1070,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1105,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1140,7 +1186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="60" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1176,29 +1222,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1239,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1262,7 +1308,7 @@
         <v>43</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I2" s="27" t="s">
         <v>46</v>
@@ -1275,6 +1321,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4275" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="270"/>
+    <workbookView xWindow="396" yWindow="276" windowWidth="14340" windowHeight="4272" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -87,21 +82,6 @@
     <t>ProcessPayrollForWeeklyTax</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
     <t>470L</t>
   </si>
   <si>
@@ -171,20 +151,34 @@
     <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Weekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 380</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 381</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 382</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 383</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 384</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO 2040W EMPLOYER</t>
+  </si>
+  <si>
+    <t>2040W_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,10 +193,12 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -299,105 +295,93 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="7" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -414,10 +398,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -452,7 +436,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,26 +469,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,23 +504,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -609,7 +559,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -618,13 +568,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -634,7 +584,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -643,7 +593,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -652,7 +602,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -662,12 +612,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -698,7 +648,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -717,7 +667,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -729,22 +679,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,21 +708,21 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -786,7 +736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -800,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -815,29 +765,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,417 +813,421 @@
         <v>8</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>6240</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>78032.759999999995</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>156560.04</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="C6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D6" s="5">
+        <v>260000</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6">
-        <v>260000</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
       <formula1>$B$19:$B$20</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>$B$15:$B$16</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="56.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="45.85546875" collapsed="true"/>
+    <col min="1" max="1" width="38.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:13" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="H1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="J1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="K1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="21" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="F2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="K2" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="24" t="s">
+      <c r="G6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row ht="60" r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row ht="60" r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row ht="60" r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row ht="60" r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="26" t="s">
+      <c r="I6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="21" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2:A6" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
+    <col min="1" max="1" width="35.21875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -1285,42 +1239,45 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="43.15" r="2" s="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
+    <row r="2" spans="1:13" s="25" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="G2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="24" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="276" windowWidth="14340" windowHeight="4272" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4272" windowWidth="14340" xWindow="396" yWindow="276"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateWeekly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForWeeklyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -179,6 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,92 +297,92 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="7" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -398,10 +399,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -559,7 +560,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -568,13 +569,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -584,7 +585,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -593,7 +594,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -602,7 +603,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -612,12 +613,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -648,7 +649,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -667,7 +668,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -679,7 +680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -688,13 +689,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -722,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -736,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -750,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -765,13 +766,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -780,14 +781,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,7 +814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>45</v>
       </c>
@@ -925,19 +926,19 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
       <formula1>$B$19:$B$20</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
       <formula1>$B$15:$B$16</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -946,17 +947,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="25.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="45.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="40.44140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="45.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
@@ -997,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="21" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="43.2" r="2" s="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>50</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>50</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>50</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row ht="43.2" r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>50</v>
       </c>
@@ -1174,14 +1175,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2:A6" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2:A6"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1190,15 +1191,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="46" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.21875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="46.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="25" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="43.2" r="2" s="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
@@ -1276,8 +1277,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4272" windowWidth="14340" xWindow="396" yWindow="276"/>
+    <workbookView activeTab="2" windowHeight="4272" windowWidth="14340" xWindow="396" yWindow="276"/>
   </bookViews>
   <sheets>
     <sheet name="first" r:id="rId1" sheetId="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>Payroll Suite IncomeTax_TCWeek1_204045VariablePay&amp;Weekly50RL201718.xlsx</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
   </si>
   <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
@@ -816,7 +813,7 @@
     </row>
     <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>21</v>
@@ -838,7 +835,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>22</v>
@@ -860,7 +857,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>23</v>
@@ -882,7 +879,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>18</v>
@@ -904,7 +901,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>24</v>
@@ -941,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,7 +947,7 @@
     <col min="1" max="1" customWidth="true" width="38.21875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="40.44140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>
@@ -1000,13 +997,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="43.2" r="2" s="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>17</v>
@@ -1035,13 +1032,13 @@
     </row>
     <row ht="43.2" r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>17</v>
@@ -1070,13 +1067,13 @@
     </row>
     <row ht="43.2" r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>17</v>
@@ -1105,13 +1102,13 @@
     </row>
     <row ht="43.2" r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>17</v>
@@ -1140,13 +1137,13 @@
     </row>
     <row ht="43.2" r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>17</v>
@@ -1185,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,13 +1239,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="43.2" r="2" s="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>17</v>
@@ -1263,7 +1260,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>41</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -950,7 +950,7 @@
     <col min="1" max="1" customWidth="true" width="38.21875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="12.109375" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="40.44140625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="25.5546875" collapsed="true"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
@@ -1,10 +1,948 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView activeTab="3" windowHeight="4272" windowWidth="14340" xWindow="396" yWindow="276"/>
+  </bookViews>
+  <sheets>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateWeekly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForWeeklyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+  </sheets>
+  <calcPr calcId="144525"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>EmpName</t>
+  </si>
+  <si>
+    <t>AnnualSalary</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>TestReports</t>
+  </si>
+  <si>
+    <t>compares the report with hmrc data</t>
+  </si>
+  <si>
+    <t>This processes payroll</t>
+  </si>
+  <si>
+    <t>This script sets Taxcode, Tax basis, Annual salary and Pay frequency</t>
+  </si>
+  <si>
+    <t>Taxcode</t>
+  </si>
+  <si>
+    <t>TaxBasis</t>
+  </si>
+  <si>
+    <t>PayFrequency</t>
+  </si>
+  <si>
+    <t>cumulative</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>500L</t>
+  </si>
+  <si>
+    <t>GeneralTaxRateWeekly</t>
+  </si>
+  <si>
+    <t>ProcessPayrollForWeeklyTax</t>
+  </si>
+  <si>
+    <t>470L</t>
+  </si>
+  <si>
+    <t>145L</t>
+  </si>
+  <si>
+    <t>412L</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>ExecuteQuery</t>
+  </si>
+  <si>
+    <t>This script executes the query to accumulated ytd in payroll</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>EmployerName</t>
+  </si>
+  <si>
+    <t>Payrolid</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>MonthName</t>
+  </si>
+  <si>
+    <t>ExcelInputSheet</t>
+  </si>
+  <si>
+    <t>FirstReportNameInApplication</t>
+  </si>
+  <si>
+    <t>TestResultExcelFilePath</t>
+  </si>
+  <si>
+    <t>worksheetNo</t>
+  </si>
+  <si>
+    <t>PayrollView</t>
+  </si>
+  <si>
+    <t>Week-1</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH - TAX PAYROLL AUTOMATION</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Payroll Suite IncomeTax_TCWeek1_204045VariablePay&amp;Weekly50RL201718.xlsx</t>
+  </si>
+  <si>
+    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll Net Income tax calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 380</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 381</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 382</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 383</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 384</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO 2040W EMPLOYER</t>
+  </si>
+  <si>
+    <t>2040W_Payroll</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="8">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="4">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyProtection="1" borderId="2" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+  </cellXfs>
+  <cellStyles count="3">
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT h="25400" w="63500"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row ht="15" r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row ht="15" r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15" r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.6" r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6240</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>78032.759999999995</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>156560.04</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
+        <v>260000</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>$B$19:$B$20</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
+      <formula1>$B$15:$B$16</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62,13 +1000,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="43.2" r="2" s="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>17</v>
@@ -97,13 +1035,13 @@
     </row>
     <row ht="43.2" r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>17</v>
@@ -132,13 +1070,13 @@
     </row>
     <row ht="43.2" r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>17</v>
@@ -167,13 +1105,13 @@
     </row>
     <row ht="43.2" r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>17</v>
@@ -202,13 +1140,13 @@
     </row>
     <row ht="43.2" r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>48</v>
-      </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>17</v>
@@ -247,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -304,13 +1242,13 @@
     </row>
     <row customFormat="1" customHeight="1" ht="43.2" r="2" s="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>17</v>
@@ -325,7 +1263,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>41</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite IncomeTax_TCWeek1_204045VariablePay&Weekly50RL201718.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
